--- a/src/test/resources/testdata/TestData.xlsx
+++ b/src/test/resources/testdata/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E3A189-3BFE-4144-85C1-92A3822CD845}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246D4878-D426-4E30-80FF-A62984F15F73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TestData" sheetId="1" r:id="rId1"/>
+    <sheet name="Account" sheetId="1" r:id="rId1"/>
     <sheet name="ExecutionControl" sheetId="2" r:id="rId2"/>
     <sheet name="Opportunity" sheetId="6" r:id="rId3"/>
   </sheets>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="137">
   <si>
     <t>TC001</t>
   </si>
@@ -365,6 +365,93 @@
   </si>
   <si>
     <t>UpdatedAccountName2</t>
+  </si>
+  <si>
+    <t>Survey</t>
+  </si>
+  <si>
+    <t>TC_OPT_003</t>
+  </si>
+  <si>
+    <t>Construct a Solution / Proposal</t>
+  </si>
+  <si>
+    <t>TC_OPT_004</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>TC_OPT_005</t>
+  </si>
+  <si>
+    <t>TC_OPT_006</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>TC_OPT_007</t>
+  </si>
+  <si>
+    <t>TC_OPT_008</t>
+  </si>
+  <si>
+    <t>TestAccount Name62</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>TC_OPT_009</t>
+  </si>
+  <si>
+    <t>TC_OPT_0010</t>
+  </si>
+  <si>
+    <t>TC_OPT_0011</t>
+  </si>
+  <si>
+    <t>TC_OPT_0012</t>
+  </si>
+  <si>
+    <t>TC_OPT_0013</t>
+  </si>
+  <si>
+    <t>TC_OPT_0014</t>
+  </si>
+  <si>
+    <t>TC_OPT_0015</t>
+  </si>
+  <si>
+    <t>TC_OPT_0016</t>
+  </si>
+  <si>
+    <t>autouser@lexdmgtw.com.uat</t>
+  </si>
+  <si>
+    <t>TC_OPT_0017</t>
+  </si>
+  <si>
+    <t>TC_OPT_0018</t>
+  </si>
+  <si>
+    <t>TC_OPT_0019</t>
+  </si>
+  <si>
+    <t>TC_OPT_0020</t>
+  </si>
+  <si>
+    <t>TC_OPT_0021</t>
+  </si>
+  <si>
+    <t>TC_OPT_0022</t>
+  </si>
+  <si>
+    <t>TC_OPT_0023</t>
+  </si>
+  <si>
+    <t>TC_OPT_0024</t>
   </si>
 </sst>
 </file>
@@ -862,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2036,15 +2123,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FFAE34B-CC7C-4EDD-A258-66BDD79D7574}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.81640625" bestFit="1" customWidth="1"/>
@@ -2132,12 +2219,772 @@
         <v>101</v>
       </c>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="F34" t="s">
+        <v>102</v>
+      </c>
+      <c r="G34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B40" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B42" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" t="s">
+        <v>107</v>
+      </c>
+      <c r="E44" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" t="s">
+        <v>118</v>
+      </c>
+      <c r="E48" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{80C33229-75CC-46E5-9630-C60B4DDF245E}"/>
     <hyperlink ref="B4" r:id="rId2" xr:uid="{2DFE7783-0DD8-4B40-9BCC-1E31F6E0649E}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{E5EC6EF6-2546-43D2-B710-1B3169C4EEEF}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{6754994C-AF1F-4979-AC98-F781A3564671}"/>
+    <hyperlink ref="B10" r:id="rId5" xr:uid="{C5720038-20A6-41CA-A337-FF98A005E51A}"/>
+    <hyperlink ref="B12" r:id="rId6" xr:uid="{1E34164D-B478-4F07-890B-FA54E7F75763}"/>
+    <hyperlink ref="B14" r:id="rId7" xr:uid="{642B90C3-4355-4BDE-9AF9-B3DC1A350D70}"/>
+    <hyperlink ref="B16" r:id="rId8" xr:uid="{DCC947D6-256C-4EA6-AF80-009AC433EC5B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>